--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\NetBeansProjects\Nominas2020\resources\original 2020\practica 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Google Drive\UNIVERSIDAD\Curso 19-20 segundo semestre\Sistemas de Información II\Practica 3\original 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3860E0B4-8753-4E99-8361-EADC3FC2FC98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9928266D-22FC-4770-8FC7-6B26FD2D672B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="685">
   <si>
     <t>Nombre</t>
   </si>
@@ -193,12 +193,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t>Mohamed</t>
-  </si>
-  <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
     <t>Alencar</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
     <t>01234567L</t>
   </si>
   <si>
-    <t>X9924125Q</t>
-  </si>
-  <si>
     <t>Jefe de servicio</t>
   </si>
   <si>
@@ -634,858 +625,861 @@
     <t>Santiago</t>
   </si>
   <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Fresco</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>71393352H</t>
+  </si>
+  <si>
+    <t>Emiliano</t>
+  </si>
+  <si>
+    <t>Puente</t>
+  </si>
+  <si>
+    <t>09738010V</t>
+  </si>
+  <si>
+    <t>Encarnación</t>
+  </si>
+  <si>
+    <t>Herrero</t>
+  </si>
+  <si>
+    <t>09570211A</t>
+  </si>
+  <si>
+    <t>Eulalia</t>
+  </si>
+  <si>
+    <t>Cascallana</t>
+  </si>
+  <si>
+    <t>Jaular</t>
+  </si>
+  <si>
+    <t>02614035Q</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Gomara</t>
+  </si>
+  <si>
+    <t>Iban</t>
+  </si>
+  <si>
+    <t>09689676Y</t>
+  </si>
+  <si>
+    <t>Dominguez</t>
+  </si>
+  <si>
+    <t>Generoso</t>
+  </si>
+  <si>
+    <t>Soto</t>
+  </si>
+  <si>
+    <t>71393354C</t>
+  </si>
+  <si>
+    <t>Herminia</t>
+  </si>
+  <si>
+    <t>Santín</t>
+  </si>
+  <si>
+    <t>10405904Z</t>
+  </si>
+  <si>
+    <t>Héctor</t>
+  </si>
+  <si>
+    <t>Melcón</t>
+  </si>
+  <si>
+    <t>Otero</t>
+  </si>
+  <si>
+    <t>09548392B</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>Castañeda</t>
+  </si>
+  <si>
+    <t>09570242B</t>
+  </si>
+  <si>
+    <t>Germán</t>
+  </si>
+  <si>
+    <t>Bariales</t>
+  </si>
+  <si>
+    <t>09314602Q</t>
+  </si>
+  <si>
+    <t>Inés</t>
+  </si>
+  <si>
+    <t>Riverto</t>
+  </si>
+  <si>
+    <t>Fuertes</t>
+  </si>
+  <si>
+    <t>09548150E</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Echevarria</t>
+  </si>
+  <si>
+    <t>Almanzar</t>
+  </si>
+  <si>
+    <t>09810142K</t>
+  </si>
+  <si>
+    <t>Ismael</t>
+  </si>
+  <si>
+    <t>09545570H</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>10940987W</t>
+  </si>
+  <si>
+    <t>Julio Ernesto</t>
+  </si>
+  <si>
+    <t>71393396Q</t>
+  </si>
+  <si>
+    <t>Justina</t>
+  </si>
+  <si>
+    <t>10575307E</t>
+  </si>
+  <si>
+    <t>Julio Pedro</t>
+  </si>
+  <si>
+    <t>09632539R</t>
+  </si>
+  <si>
+    <t>Víctor</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>09548283V</t>
+  </si>
+  <si>
+    <t>Tomás</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Sevillano</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Soledad</t>
+  </si>
+  <si>
+    <t>Arias</t>
+  </si>
+  <si>
+    <t>09786363R</t>
+  </si>
+  <si>
+    <t>Serafín</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>09758365V</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Sutil</t>
+  </si>
+  <si>
+    <t>09611066X</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Galán</t>
+  </si>
+  <si>
+    <t>Amo</t>
+  </si>
+  <si>
+    <t>71878948S</t>
+  </si>
+  <si>
+    <t>Rubén Darío</t>
+  </si>
+  <si>
+    <t>09548287K</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>Laiz</t>
+  </si>
+  <si>
+    <t>Domínguez</t>
+  </si>
+  <si>
+    <t>09548451R</t>
+  </si>
+  <si>
+    <t>Rocío</t>
+  </si>
+  <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>09481741Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramón </t>
+  </si>
+  <si>
+    <t>00538394X</t>
+  </si>
+  <si>
+    <t>Paulina</t>
+  </si>
+  <si>
+    <t>Orejas</t>
+  </si>
+  <si>
+    <t>Díez</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Olle</t>
+  </si>
+  <si>
+    <t>09548215H</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Márquez</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Iglesias</t>
+  </si>
+  <si>
+    <t>71597570L</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Manzanares</t>
+  </si>
+  <si>
+    <t>Cadenas</t>
+  </si>
+  <si>
+    <t>09570258G</t>
+  </si>
+  <si>
+    <t>Nieves</t>
+  </si>
+  <si>
+    <t>Morán</t>
+  </si>
+  <si>
+    <t>Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Morala</t>
+  </si>
+  <si>
+    <t>Bernal</t>
+  </si>
+  <si>
+    <t>09806572Q</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Benito</t>
+  </si>
+  <si>
+    <t>09548505D</t>
+  </si>
+  <si>
+    <t>Mauro</t>
+  </si>
+  <si>
+    <t>Belerda</t>
+  </si>
+  <si>
+    <t>Aparicio</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>Calleja</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>09769669M</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Candanedo</t>
+  </si>
+  <si>
+    <t>Portugues</t>
+  </si>
+  <si>
+    <t>09548317M</t>
+  </si>
+  <si>
+    <t>Agustín</t>
+  </si>
+  <si>
+    <t>09458455G</t>
+  </si>
+  <si>
+    <t>Adolfo</t>
+  </si>
+  <si>
+    <t>Bayon</t>
+  </si>
+  <si>
+    <t>12160221Y</t>
+  </si>
+  <si>
+    <t>Iván</t>
+  </si>
+  <si>
+    <t>Carpintero</t>
+  </si>
+  <si>
+    <t>Cepin</t>
+  </si>
+  <si>
+    <t>12649208J</t>
+  </si>
+  <si>
+    <t>Jesús Manuel</t>
+  </si>
+  <si>
+    <t>Centeno</t>
+  </si>
+  <si>
+    <t>X3607387K</t>
+  </si>
+  <si>
+    <t>José Antonio</t>
+  </si>
+  <si>
+    <t>Cerro</t>
+  </si>
+  <si>
+    <t>Ponga</t>
+  </si>
+  <si>
+    <t>12684218V</t>
+  </si>
+  <si>
+    <t>Nelida</t>
+  </si>
+  <si>
+    <t>Charro</t>
+  </si>
+  <si>
+    <t>09548290R</t>
+  </si>
+  <si>
+    <t>Marisa</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Cedron</t>
+  </si>
+  <si>
+    <t>09626048L</t>
+  </si>
+  <si>
+    <t>Melisa</t>
+  </si>
+  <si>
+    <t>09548501M</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Cembranos</t>
+  </si>
+  <si>
+    <t>Lombás</t>
+  </si>
+  <si>
+    <t>Almarza</t>
+  </si>
+  <si>
+    <t>71404629W</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>Río</t>
+  </si>
+  <si>
+    <t>09570262P</t>
+  </si>
+  <si>
+    <t>X1673150S</t>
+  </si>
+  <si>
+    <t>Latifa Epfouad Erre</t>
+  </si>
+  <si>
+    <t>51556584121251000254</t>
+  </si>
+  <si>
+    <t>26551681877651415636</t>
+  </si>
+  <si>
+    <t>62541122001110105611</t>
+  </si>
+  <si>
+    <t>65645150005168448896</t>
+  </si>
+  <si>
+    <t>20012541100023365233</t>
+  </si>
+  <si>
+    <t>23658965214585223202</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>P2456841A</t>
+  </si>
+  <si>
+    <t>PBlankSA</t>
+  </si>
+  <si>
+    <t>P2492876R</t>
+  </si>
+  <si>
+    <t>APhonSA</t>
+  </si>
+  <si>
+    <t>P2463928T</t>
+  </si>
+  <si>
+    <t>Asoftware</t>
+  </si>
+  <si>
+    <t>P2418823C</t>
+  </si>
+  <si>
+    <t>31645124473461205164</t>
+  </si>
+  <si>
+    <t>65614874165615445616</t>
+  </si>
+  <si>
+    <t>32569523016220165156</t>
+  </si>
+  <si>
+    <t>24561937521546497521</t>
+  </si>
+  <si>
+    <t>36520125638451012515</t>
+  </si>
+  <si>
+    <t>20125003305201112544</t>
+  </si>
+  <si>
+    <t>21651484690980008984</t>
+  </si>
+  <si>
+    <t>Y1337652D</t>
+  </si>
+  <si>
+    <t>21564975243245467995</t>
+  </si>
+  <si>
+    <t>32566221522587754554</t>
+  </si>
+  <si>
+    <t>23215465315456411515</t>
+  </si>
+  <si>
+    <t>00750184310702510000</t>
+  </si>
+  <si>
+    <t>21584976902154655487</t>
+  </si>
+  <si>
+    <t>25894363475485700145</t>
+  </si>
+  <si>
+    <t>96431245118150005156</t>
+  </si>
+  <si>
+    <t>25030000114574745458</t>
+  </si>
+  <si>
+    <t>15953684811254695203</t>
+  </si>
+  <si>
+    <t>20960043023096200000</t>
+  </si>
+  <si>
+    <t>Y0806930N</t>
+  </si>
+  <si>
+    <t>23455254943263234457</t>
+  </si>
+  <si>
+    <t>09741995T</t>
+  </si>
+  <si>
+    <t>20960043032159000000</t>
+  </si>
+  <si>
+    <t>12669681115112121210</t>
+  </si>
+  <si>
+    <t>56187775315550000651</t>
+  </si>
+  <si>
+    <t>25516848021156151054</t>
+  </si>
+  <si>
+    <t>64578946740051516490</t>
+  </si>
+  <si>
+    <t>34698752714600549403</t>
+  </si>
+  <si>
+    <t>66649444162310000255</t>
+  </si>
+  <si>
+    <t>23185484465641685100</t>
+  </si>
+  <si>
+    <t>52198484752100515144</t>
+  </si>
+  <si>
+    <t>36250012804785523365</t>
+  </si>
+  <si>
+    <t>22515651915640081000</t>
+  </si>
+  <si>
+    <t>21508149175421346497</t>
+  </si>
+  <si>
+    <t>24304263W</t>
+  </si>
+  <si>
+    <t>21346154503164978451</t>
+  </si>
+  <si>
+    <t>25187786311225455548</t>
+  </si>
+  <si>
+    <t>23164897642213030615</t>
+  </si>
+  <si>
+    <t>96536214865214585214</t>
+  </si>
+  <si>
+    <t>85461325251978750005</t>
+  </si>
+  <si>
+    <t>24587946032003165464</t>
+  </si>
+  <si>
+    <t>24571671N</t>
+  </si>
+  <si>
+    <t>20960043073071400000</t>
+  </si>
+  <si>
+    <t>20960043042158800000</t>
+  </si>
+  <si>
+    <t>21654587985156484454</t>
+  </si>
+  <si>
+    <t>51651681961210656510</t>
+  </si>
+  <si>
+    <t>66552211148855332200</t>
+  </si>
+  <si>
+    <t>09548827D</t>
+  </si>
+  <si>
+    <t>X8996448K</t>
+  </si>
+  <si>
+    <t>01821135910205540000</t>
+  </si>
+  <si>
+    <t>22631245526916432102</t>
+  </si>
+  <si>
+    <t>09548295Y</t>
+  </si>
+  <si>
+    <t>20960043043075700000</t>
+  </si>
+  <si>
+    <t>25635478321002541225</t>
+  </si>
+  <si>
+    <t>32154697195423121000</t>
+  </si>
+  <si>
+    <t>36521452736500658485</t>
+  </si>
+  <si>
+    <t>20008521528775113366</t>
+  </si>
+  <si>
+    <t>51651487910005118185</t>
+  </si>
+  <si>
+    <t>09611087P</t>
+  </si>
+  <si>
+    <t>21651651812511133551</t>
+  </si>
+  <si>
+    <t>20960043033000100000</t>
+  </si>
+  <si>
+    <t>36585214290025478551</t>
+  </si>
+  <si>
+    <t>12548523465214585214</t>
+  </si>
+  <si>
+    <t>31624561042546920007</t>
+  </si>
+  <si>
+    <t>36154231712500312566</t>
+  </si>
+  <si>
+    <t>44875664127231645789</t>
+  </si>
+  <si>
+    <t>09548486J</t>
+  </si>
+  <si>
+    <t>33620012937852100256</t>
+  </si>
+  <si>
+    <t>33218885441445121022</t>
+  </si>
+  <si>
+    <t>62581542713690044508</t>
+  </si>
+  <si>
+    <t>25165151118666365100</t>
+  </si>
+  <si>
+    <t>36952365020014425254</t>
+  </si>
+  <si>
+    <t>65168874641561561500</t>
+  </si>
+  <si>
+    <t>20960583831234500000</t>
+  </si>
+  <si>
+    <t>21416325811510005514</t>
+  </si>
+  <si>
+    <t>32628484504115151115</t>
+  </si>
+  <si>
+    <t>63516541828944000984</t>
+  </si>
+  <si>
+    <t>32658012367712548745</t>
+  </si>
+  <si>
+    <t>23652365142254222000</t>
+  </si>
+  <si>
+    <t>32584216971684051000</t>
+  </si>
+  <si>
+    <t>55065688761051056105</t>
+  </si>
+  <si>
+    <t>95485212315484010000</t>
+  </si>
+  <si>
+    <t>21856333126985542360</t>
+  </si>
+  <si>
+    <t>36245978133245679001</t>
+  </si>
+  <si>
+    <t>31245164156597845124</t>
+  </si>
+  <si>
+    <t>23221158252545471411</t>
+  </si>
+  <si>
+    <t>32574512085411002255</t>
+  </si>
+  <si>
+    <t>20960043013468900000</t>
+  </si>
+  <si>
+    <t>09548443Q</t>
+  </si>
+  <si>
+    <t>31215643855060225021</t>
+  </si>
+  <si>
+    <t>09749147E</t>
+  </si>
+  <si>
+    <t>85550564726165145610</t>
+  </si>
+  <si>
+    <t>65165654918886005001</t>
+  </si>
+  <si>
+    <t>26221011628048788896</t>
+  </si>
+  <si>
+    <t>12548521518742146695</t>
+  </si>
+  <si>
+    <t>32541112811220000588</t>
+  </si>
+  <si>
+    <t>99558741836555551120</t>
+  </si>
+  <si>
+    <t>09458455Y</t>
+  </si>
+  <si>
+    <t>09785530J</t>
+  </si>
+  <si>
+    <t>09548827E</t>
+  </si>
+  <si>
+    <t>09548416X</t>
+  </si>
+  <si>
+    <t>09548295P</t>
+  </si>
+  <si>
+    <t>09548150L</t>
+  </si>
+  <si>
     <t>09548416N</t>
   </si>
   <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Fresco</t>
-  </si>
-  <si>
-    <t>09548245W</t>
-  </si>
-  <si>
-    <t>Elisa</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
-    <t>71393352H</t>
-  </si>
-  <si>
-    <t>Emiliano</t>
-  </si>
-  <si>
-    <t>Puente</t>
-  </si>
-  <si>
-    <t>09738010V</t>
-  </si>
-  <si>
-    <t>Encarnación</t>
-  </si>
-  <si>
-    <t>Herrero</t>
-  </si>
-  <si>
-    <t>09570211A</t>
-  </si>
-  <si>
-    <t>Eulalia</t>
-  </si>
-  <si>
-    <t>Cascallana</t>
-  </si>
-  <si>
-    <t>Jaular</t>
-  </si>
-  <si>
-    <t>02614035Q</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
-    <t>Gomara</t>
-  </si>
-  <si>
-    <t>Iban</t>
-  </si>
-  <si>
-    <t>09689676Y</t>
-  </si>
-  <si>
-    <t>Dominguez</t>
-  </si>
-  <si>
-    <t>Generoso</t>
-  </si>
-  <si>
-    <t>Soto</t>
-  </si>
-  <si>
-    <t>71393354C</t>
-  </si>
-  <si>
-    <t>Herminia</t>
-  </si>
-  <si>
-    <t>Santín</t>
-  </si>
-  <si>
-    <t>10405904Z</t>
-  </si>
-  <si>
-    <t>Héctor</t>
-  </si>
-  <si>
-    <t>Melcón</t>
-  </si>
-  <si>
-    <t>Otero</t>
-  </si>
-  <si>
-    <t>09548392B</t>
-  </si>
-  <si>
-    <t>Gonzalo</t>
-  </si>
-  <si>
-    <t>Castañeda</t>
-  </si>
-  <si>
-    <t>09570242B</t>
-  </si>
-  <si>
-    <t>Germán</t>
-  </si>
-  <si>
-    <t>Bariales</t>
-  </si>
-  <si>
-    <t>09314602Q</t>
-  </si>
-  <si>
-    <t>Inés</t>
-  </si>
-  <si>
-    <t>Riverto</t>
-  </si>
-  <si>
-    <t>Fuertes</t>
-  </si>
-  <si>
-    <t>09548150E</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>Echevarria</t>
-  </si>
-  <si>
-    <t>Almanzar</t>
-  </si>
-  <si>
-    <t>09810142K</t>
-  </si>
-  <si>
-    <t>Ismael</t>
-  </si>
-  <si>
-    <t>09545570H</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>10940987W</t>
-  </si>
-  <si>
-    <t>Julio Ernesto</t>
-  </si>
-  <si>
-    <t>71393396Q</t>
-  </si>
-  <si>
-    <t>Justina</t>
-  </si>
-  <si>
-    <t>10575307E</t>
-  </si>
-  <si>
-    <t>Julio Pedro</t>
-  </si>
-  <si>
-    <t>09632539R</t>
-  </si>
-  <si>
-    <t>Víctor</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>09548283V</t>
-  </si>
-  <si>
-    <t>Tomás</t>
-  </si>
-  <si>
-    <t>Sonia</t>
-  </si>
-  <si>
-    <t>Sevillano</t>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t>02518676S</t>
-  </si>
-  <si>
-    <t>Soledad</t>
-  </si>
-  <si>
-    <t>Arias</t>
-  </si>
-  <si>
-    <t>09786363R</t>
-  </si>
-  <si>
-    <t>Serafín</t>
-  </si>
-  <si>
-    <t>Carro</t>
-  </si>
-  <si>
-    <t>09758365V</t>
-  </si>
-  <si>
-    <t>Sergio</t>
-  </si>
-  <si>
-    <t>Sutil</t>
-  </si>
-  <si>
-    <t>09611066X</t>
-  </si>
-  <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>Galán</t>
-  </si>
-  <si>
-    <t>Amo</t>
-  </si>
-  <si>
-    <t>71878948S</t>
-  </si>
-  <si>
-    <t>Rubén Darío</t>
-  </si>
-  <si>
-    <t>09548287K</t>
-  </si>
-  <si>
-    <t>Rosario</t>
-  </si>
-  <si>
-    <t>Laiz</t>
-  </si>
-  <si>
-    <t>Domínguez</t>
-  </si>
-  <si>
-    <t>09548451R</t>
-  </si>
-  <si>
-    <t>Rocío</t>
-  </si>
-  <si>
-    <t>Gil</t>
-  </si>
-  <si>
-    <t>09481741Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramón </t>
-  </si>
-  <si>
-    <t>00538394X</t>
-  </si>
-  <si>
-    <t>Paulina</t>
-  </si>
-  <si>
-    <t>Orejas</t>
-  </si>
-  <si>
-    <t>Díez</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Olle</t>
-  </si>
-  <si>
-    <t>09548215H</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Márquez</t>
-  </si>
-  <si>
-    <t>09779285F</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Iglesias</t>
-  </si>
-  <si>
-    <t>71597570L</t>
-  </si>
-  <si>
-    <t>Nicolás</t>
-  </si>
-  <si>
-    <t>Manzanares</t>
-  </si>
-  <si>
-    <t>Cadenas</t>
-  </si>
-  <si>
-    <t>09570258G</t>
-  </si>
-  <si>
-    <t>Nieves</t>
-  </si>
-  <si>
-    <t>Morán</t>
-  </si>
-  <si>
-    <t>Miguel Ángel</t>
-  </si>
-  <si>
-    <t>Morala</t>
-  </si>
-  <si>
-    <t>Bernal</t>
-  </si>
-  <si>
-    <t>09806572Q</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Benito</t>
-  </si>
-  <si>
-    <t>09548505D</t>
-  </si>
-  <si>
-    <t>Mauro</t>
-  </si>
-  <si>
-    <t>Belerda</t>
-  </si>
-  <si>
-    <t>Aparicio</t>
-  </si>
-  <si>
-    <t>09706118A</t>
-  </si>
-  <si>
-    <t>María</t>
-  </si>
-  <si>
-    <t>Calleja</t>
-  </si>
-  <si>
-    <t>Vega</t>
-  </si>
-  <si>
-    <t>09769669M</t>
-  </si>
-  <si>
-    <t>Federico</t>
-  </si>
-  <si>
-    <t>Candanedo</t>
-  </si>
-  <si>
-    <t>Portugues</t>
-  </si>
-  <si>
-    <t>09548317M</t>
-  </si>
-  <si>
-    <t>Agustín</t>
-  </si>
-  <si>
-    <t>09458455G</t>
-  </si>
-  <si>
-    <t>Adolfo</t>
-  </si>
-  <si>
-    <t>Bayon</t>
-  </si>
-  <si>
-    <t>12160221Y</t>
-  </si>
-  <si>
-    <t>Iván</t>
-  </si>
-  <si>
-    <t>Carpintero</t>
-  </si>
-  <si>
-    <t>Cepin</t>
-  </si>
-  <si>
-    <t>12649208J</t>
-  </si>
-  <si>
-    <t>Jesús Manuel</t>
-  </si>
-  <si>
-    <t>Centeno</t>
-  </si>
-  <si>
-    <t>X3607387K</t>
-  </si>
-  <si>
-    <t>José Antonio</t>
-  </si>
-  <si>
-    <t>Cerro</t>
-  </si>
-  <si>
-    <t>Ponga</t>
-  </si>
-  <si>
-    <t>12684218V</t>
-  </si>
-  <si>
-    <t>Nelida</t>
-  </si>
-  <si>
-    <t>Charro</t>
-  </si>
-  <si>
-    <t>09548290R</t>
-  </si>
-  <si>
-    <t>Marisa</t>
-  </si>
-  <si>
-    <t>Chen</t>
-  </si>
-  <si>
-    <t>Cedron</t>
-  </si>
-  <si>
-    <t>09626048L</t>
-  </si>
-  <si>
-    <t>Melisa</t>
-  </si>
-  <si>
-    <t>09548501M</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Cembranos</t>
-  </si>
-  <si>
-    <t>Lombás</t>
-  </si>
-  <si>
-    <t>Almarza</t>
-  </si>
-  <si>
-    <t>71404629W</t>
-  </si>
-  <si>
-    <t>Abel</t>
-  </si>
-  <si>
-    <t>Río</t>
-  </si>
-  <si>
-    <t>09570262P</t>
-  </si>
-  <si>
-    <t>X1673150S</t>
-  </si>
-  <si>
-    <t>Latifa Epfouad Erre</t>
-  </si>
-  <si>
-    <t>51556584121251000254</t>
-  </si>
-  <si>
-    <t>26551681877651415636</t>
-  </si>
-  <si>
-    <t>62541122001110105611</t>
-  </si>
-  <si>
-    <t>65645150005168448896</t>
-  </si>
-  <si>
-    <t>20012541100023365233</t>
-  </si>
-  <si>
-    <t>23658965214585223202</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>P2456841A</t>
-  </si>
-  <si>
-    <t>PBlankSA</t>
-  </si>
-  <si>
-    <t>P2492876R</t>
-  </si>
-  <si>
-    <t>APhonSA</t>
-  </si>
-  <si>
-    <t>P2463928T</t>
-  </si>
-  <si>
-    <t>Asoftware</t>
-  </si>
-  <si>
-    <t>P2418823C</t>
-  </si>
-  <si>
-    <t>32145464138452163421</t>
-  </si>
-  <si>
-    <t>31645124473461205164</t>
-  </si>
-  <si>
-    <t>65614874165615445616</t>
-  </si>
-  <si>
-    <t>32569523016220165156</t>
-  </si>
-  <si>
-    <t>24561937521546497521</t>
-  </si>
-  <si>
-    <t>36520125638451012515</t>
-  </si>
-  <si>
-    <t>20125003305201112544</t>
-  </si>
-  <si>
-    <t>21651484690980008984</t>
-  </si>
-  <si>
-    <t>Y1337652D</t>
-  </si>
-  <si>
-    <t>21564975243245467995</t>
-  </si>
-  <si>
-    <t>32566221522587754554</t>
-  </si>
-  <si>
-    <t>23215465315456411515</t>
-  </si>
-  <si>
-    <t>00750184310702510000</t>
-  </si>
-  <si>
-    <t>21584976902154655487</t>
-  </si>
-  <si>
-    <t>25894363475485700145</t>
-  </si>
-  <si>
-    <t>96431245118150005156</t>
-  </si>
-  <si>
-    <t>25030000114574745458</t>
-  </si>
-  <si>
-    <t>15953684811254695203</t>
-  </si>
-  <si>
-    <t>20960043023096200000</t>
-  </si>
-  <si>
-    <t>Y0806930N</t>
-  </si>
-  <si>
-    <t>23455254943263234457</t>
-  </si>
-  <si>
-    <t>09741995T</t>
-  </si>
-  <si>
-    <t>20960043032159000000</t>
-  </si>
-  <si>
-    <t>12669681115112121210</t>
-  </si>
-  <si>
-    <t>56187775315550000651</t>
-  </si>
-  <si>
-    <t>25516848021156151054</t>
-  </si>
-  <si>
-    <t>64578946740051516490</t>
-  </si>
-  <si>
-    <t>34698752714600549403</t>
-  </si>
-  <si>
-    <t>66649444162310000255</t>
-  </si>
-  <si>
-    <t>23185484465641685100</t>
-  </si>
-  <si>
-    <t>52198484752100515144</t>
-  </si>
-  <si>
-    <t>36250012804785523365</t>
-  </si>
-  <si>
-    <t>22515651915640081000</t>
-  </si>
-  <si>
-    <t>21508149175421346497</t>
-  </si>
-  <si>
-    <t>24304263W</t>
-  </si>
-  <si>
-    <t>21346154503164978451</t>
-  </si>
-  <si>
-    <t>25187786311225455548</t>
-  </si>
-  <si>
-    <t>23164897642213030615</t>
-  </si>
-  <si>
-    <t>96536214865214585214</t>
-  </si>
-  <si>
-    <t>85461325251978750005</t>
-  </si>
-  <si>
-    <t>24587946032003165464</t>
-  </si>
-  <si>
-    <t>24571671N</t>
-  </si>
-  <si>
-    <t>20960043073071400000</t>
-  </si>
-  <si>
-    <t>20960043042158800000</t>
-  </si>
-  <si>
-    <t>21654587985156484454</t>
-  </si>
-  <si>
-    <t>51651681961210656510</t>
-  </si>
-  <si>
-    <t>66552211148855332200</t>
-  </si>
-  <si>
-    <t>09548827D</t>
-  </si>
-  <si>
-    <t>X8996448K</t>
-  </si>
-  <si>
-    <t>01821135910205540000</t>
-  </si>
-  <si>
-    <t>22631245526916432102</t>
-  </si>
-  <si>
-    <t>09548295Y</t>
-  </si>
-  <si>
-    <t>20960043043075700000</t>
-  </si>
-  <si>
-    <t>25635478321002541225</t>
-  </si>
-  <si>
-    <t>32154697195423121000</t>
-  </si>
-  <si>
-    <t>36521452736500658485</t>
-  </si>
-  <si>
-    <t>20008521528775113366</t>
-  </si>
-  <si>
-    <t>51651487910005118185</t>
-  </si>
-  <si>
-    <t>09611087P</t>
-  </si>
-  <si>
-    <t>21651651812511133551</t>
-  </si>
-  <si>
-    <t>20960043033000100000</t>
-  </si>
-  <si>
-    <t>36585214290025478551</t>
-  </si>
-  <si>
-    <t>12548523465214585214</t>
-  </si>
-  <si>
-    <t>31624561042546920007</t>
-  </si>
-  <si>
-    <t>36154231712500312566</t>
-  </si>
-  <si>
-    <t>44875664127231645789</t>
-  </si>
-  <si>
-    <t>09548486J</t>
-  </si>
-  <si>
-    <t>33620012937852100256</t>
-  </si>
-  <si>
-    <t>33218885441445121022</t>
-  </si>
-  <si>
-    <t>62581542713690044508</t>
-  </si>
-  <si>
-    <t>25165151118666365100</t>
-  </si>
-  <si>
-    <t>36952365020014425254</t>
-  </si>
-  <si>
-    <t>65168874641561561500</t>
-  </si>
-  <si>
-    <t>20960583831234500000</t>
-  </si>
-  <si>
-    <t>21416325811510005514</t>
-  </si>
-  <si>
-    <t>32628484504115151115</t>
-  </si>
-  <si>
-    <t>63516541828944000984</t>
-  </si>
-  <si>
-    <t>32658012367712548745</t>
-  </si>
-  <si>
-    <t>23652365142254222000</t>
-  </si>
-  <si>
-    <t>32584216971684051000</t>
-  </si>
-  <si>
-    <t>55065688761051056105</t>
-  </si>
-  <si>
-    <t>95485212315484010000</t>
-  </si>
-  <si>
-    <t>21856333126985542360</t>
-  </si>
-  <si>
-    <t>36245978133245679001</t>
-  </si>
-  <si>
-    <t>31245164156597845124</t>
-  </si>
-  <si>
-    <t>23221158252545471411</t>
-  </si>
-  <si>
-    <t>32574512085411002255</t>
-  </si>
-  <si>
-    <t>20960043013468900000</t>
-  </si>
-  <si>
-    <t>09548443Q</t>
-  </si>
-  <si>
-    <t>31215643855060225021</t>
-  </si>
-  <si>
-    <t>09749147E</t>
-  </si>
-  <si>
-    <t>85550564726165145610</t>
-  </si>
-  <si>
-    <t>65165654918886005001</t>
-  </si>
-  <si>
-    <t>26221011628048788896</t>
-  </si>
-  <si>
-    <t>12548521518742146695</t>
-  </si>
-  <si>
-    <t>32541112811220000588</t>
-  </si>
-  <si>
-    <t>99558741836555551120</t>
-  </si>
-  <si>
     <t>20960056133231500000</t>
   </si>
   <si>
@@ -1507,12 +1501,6 @@
     <t>26551681807651415636</t>
   </si>
   <si>
-    <t>ES3520960043043554600000</t>
-  </si>
-  <si>
-    <t>ES7832145464138452163421</t>
-  </si>
-  <si>
     <t>DK7331645124473461205164</t>
   </si>
   <si>
@@ -1802,12 +1790,6 @@
   </si>
   <si>
     <t>HU2399558741836555551120</t>
-  </si>
-  <si>
-    <t>AM00@TecnoLeonSL.es</t>
-  </si>
-  <si>
-    <t>AAM00@TecnoProyectSL.es</t>
   </si>
   <si>
     <t>AAB00@Asoftware.es</t>
@@ -2516,27 +2498,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="8" max="8" style="2" width="11.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="5" width="28.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="7.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="8" max="8" style="2" width="11.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="28.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="17.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="8.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2547,7 +2529,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -2559,4123 +2541,4044 @@
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>378</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1">
-        <v>38930</v>
+        <v>43101</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>70</v>
+        <v>129</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="I2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" t="s">
+        <v>588</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>38930</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
-        <v>592</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>388</v>
-      </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>386</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>39448</v>
+        <v>43617</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="I4" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>366</v>
       </c>
       <c r="L4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>40513</v>
+        <v>43617</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>346</v>
       </c>
       <c r="G5" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>189</v>
+        <v>347</v>
       </c>
       <c r="I5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43862</v>
+      </c>
+      <c r="E6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" t="s">
+        <v>591</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="K6" t="s">
+        <v>359</v>
+      </c>
+      <c r="L6" t="s">
+        <v>494</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D7" s="1"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1">
+        <v>41426</v>
+      </c>
+      <c r="E8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" t="s">
+        <v>592</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>495</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>41426</v>
+      </c>
+      <c r="E9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I9" t="s">
+        <v>593</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>496</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
-        <v>40664</v>
-      </c>
-      <c r="E6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" t="s">
-        <v>237</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I6" t="s">
-        <v>595</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="K6" t="s">
-        <v>374</v>
-      </c>
-      <c r="L6" t="s">
-        <v>496</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1">
-        <v>37742</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="I7" t="s">
-        <v>596</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="D10" s="1">
+        <v>41426</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="I10" t="s">
+        <v>594</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L10" t="s">
         <v>497</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <v>38200</v>
-      </c>
-      <c r="E8" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I8" t="s">
-        <v>597</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="K8" t="s">
-        <v>367</v>
-      </c>
-      <c r="L8" t="s">
-        <v>498</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="1">
-        <v>40391</v>
-      </c>
-      <c r="E10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I10" t="s">
-        <v>598</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="K10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" t="s">
-        <v>499</v>
       </c>
       <c r="M10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B11" t="s">
-        <v>382</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
-        <v>37226</v>
+        <v>41671</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>241</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>279</v>
+        <v>387</v>
       </c>
       <c r="I11" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>376</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>41426</v>
+        <v>41671</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>278</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>396</v>
+        <v>279</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="I12" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>363</v>
       </c>
       <c r="L12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>376</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
-        <v>41426</v>
+        <v>41671</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="F13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" t="s">
+        <v>597</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="K13" t="s">
+        <v>369</v>
+      </c>
+      <c r="L13" t="s">
+        <v>500</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1">
+        <v>39356</v>
+      </c>
+      <c r="E14" t="s">
         <v>57</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I13" t="s">
-        <v>601</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="H14" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="I14" t="s">
+        <v>598</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="K14" t="s">
         <v>85</v>
       </c>
-      <c r="L13" t="s">
-        <v>502</v>
-      </c>
-      <c r="M13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>385</v>
-      </c>
-      <c r="B14" t="s">
-        <v>384</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="1">
-        <v>38139</v>
-      </c>
-      <c r="E14" t="s">
-        <v>284</v>
-      </c>
-      <c r="F14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" t="s">
-        <v>285</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I14" t="s">
-        <v>602</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="K14" t="s">
-        <v>371</v>
-      </c>
       <c r="L14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B15" t="s">
-        <v>384</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1">
-        <v>40087</v>
+        <v>39387</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
       <c r="I15" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="K15" t="s">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>374</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>39356</v>
+        <v>39022</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>320</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>359</v>
+        <v>321</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="I16" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>368</v>
       </c>
       <c r="L16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>374</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="1">
-        <v>39387</v>
+        <v>43831</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>307</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>308</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="I17" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B18" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1">
-        <v>39022</v>
+        <v>36831</v>
       </c>
       <c r="E18" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F18" t="s">
-        <v>329</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I18" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K18" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="L18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B19" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>40118</v>
+        <v>41548</v>
       </c>
       <c r="E19" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F19" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G19" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="I19" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>362</v>
       </c>
       <c r="L19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B20" t="s">
-        <v>382</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1">
-        <v>36831</v>
+        <v>40909</v>
       </c>
       <c r="E20" t="s">
-        <v>326</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>327</v>
+        <v>33</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="K20" t="s">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="L20" t="s">
+        <v>507</v>
+      </c>
+      <c r="M20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>379</v>
+      </c>
+      <c r="B21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I21" t="s">
+        <v>605</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="K21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" t="s">
+        <v>508</v>
+      </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41944</v>
+      </c>
+      <c r="E22" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I22" t="s">
+        <v>606</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="K22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" t="s">
         <v>509</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>383</v>
-      </c>
-      <c r="B21" t="s">
-        <v>382</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1">
-        <v>41548</v>
-      </c>
-      <c r="E21" t="s">
-        <v>311</v>
-      </c>
-      <c r="F21" t="s">
-        <v>312</v>
-      </c>
-      <c r="G21" t="s">
-        <v>312</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="I21" t="s">
-        <v>609</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="K21" t="s">
-        <v>370</v>
-      </c>
-      <c r="L21" t="s">
-        <v>510</v>
-      </c>
-      <c r="M21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>381</v>
-      </c>
-      <c r="B22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="1">
-        <v>40909</v>
-      </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" t="s">
-        <v>610</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="K22" t="s">
-        <v>85</v>
-      </c>
-      <c r="L22" t="s">
-        <v>511</v>
-      </c>
-      <c r="M22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B23" t="s">
-        <v>386</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="1">
-        <v>41913</v>
+        <v>41061</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
         <v>61</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>407</v>
+        <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>40330</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="I24" t="s">
+        <v>608</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="K24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" t="s">
+        <v>511</v>
+      </c>
+      <c r="M24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>379</v>
+      </c>
+      <c r="B25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1">
+        <v>40452</v>
+      </c>
+      <c r="E25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" t="s">
+        <v>609</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="K25" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" t="s">
+        <v>512</v>
+      </c>
+      <c r="M25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>373</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="1">
-        <v>41944</v>
-      </c>
-      <c r="E24" t="s">
-        <v>360</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="I24" t="s">
-        <v>612</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="K24" t="s">
-        <v>85</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="D27" s="1">
+        <v>35735</v>
+      </c>
+      <c r="E27" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" t="s">
+        <v>292</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I27" t="s">
+        <v>610</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="K27" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" t="s">
         <v>513</v>
-      </c>
-      <c r="M24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>381</v>
-      </c>
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1">
-        <v>41061</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" t="s">
-        <v>613</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" t="s">
-        <v>87</v>
-      </c>
-      <c r="L25" t="s">
-        <v>514</v>
-      </c>
-      <c r="M25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1">
-        <v>40330</v>
-      </c>
-      <c r="E26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="I26" t="s">
-        <v>614</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="K26" t="s">
-        <v>85</v>
-      </c>
-      <c r="L26" t="s">
-        <v>515</v>
-      </c>
-      <c r="M26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>387</v>
-      </c>
-      <c r="B27" t="s">
-        <v>386</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="1">
-        <v>40452</v>
-      </c>
-      <c r="E27" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" t="s">
-        <v>151</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I27" t="s">
-        <v>615</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="K27" t="s">
-        <v>86</v>
-      </c>
-      <c r="L27" t="s">
-        <v>516</v>
       </c>
       <c r="M27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-      <c r="L28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B28" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1">
+        <v>40603</v>
+      </c>
+      <c r="E28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I28" t="s">
+        <v>611</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="K28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" t="s">
+        <v>514</v>
+      </c>
+      <c r="M28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>374</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1">
-        <v>35735</v>
+        <v>36465</v>
       </c>
       <c r="E29" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="G29" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="I29" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="K29" t="s">
-        <v>85</v>
+        <v>372</v>
       </c>
       <c r="L29" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1">
-        <v>40603</v>
+        <v>36039</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>314</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>315</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>316</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>185</v>
+        <v>317</v>
       </c>
       <c r="I30" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="K30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L30" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B31" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1">
-        <v>36465</v>
+        <v>38777</v>
       </c>
       <c r="E31" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F31" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="G31" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="I31" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K31" t="s">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="L31" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>381</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1">
-        <v>36039</v>
+        <v>38169</v>
       </c>
       <c r="E32" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="F32" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="I32" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="K32" t="s">
-        <v>85</v>
+        <v>370</v>
       </c>
       <c r="L32" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>383</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>382</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1">
-        <v>38777</v>
+        <v>40118</v>
       </c>
       <c r="E33" t="s">
-        <v>331</v>
+        <v>209</v>
       </c>
       <c r="F33" t="s">
-        <v>332</v>
+        <v>210</v>
       </c>
       <c r="G33" t="s">
-        <v>333</v>
+        <v>211</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>334</v>
+        <v>212</v>
       </c>
       <c r="I33" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="K33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L33" t="s">
+        <v>519</v>
+      </c>
+      <c r="M33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>377</v>
+      </c>
+      <c r="B34" t="s">
+        <v>376</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1">
+        <v>40664</v>
+      </c>
+      <c r="E34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I34" t="s">
+        <v>617</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="K34" t="s">
+        <v>365</v>
+      </c>
+      <c r="L34" t="s">
+        <v>520</v>
+      </c>
+      <c r="M34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B35" t="s">
+        <v>378</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1">
+        <v>37865</v>
+      </c>
+      <c r="E35" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35" t="s">
+        <v>618</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="K35" t="s">
+        <v>360</v>
+      </c>
+      <c r="L35" t="s">
         <v>521</v>
-      </c>
-      <c r="M33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="1">
-        <v>38169</v>
-      </c>
-      <c r="E34" t="s">
-        <v>268</v>
-      </c>
-      <c r="F34" t="s">
-        <v>269</v>
-      </c>
-      <c r="G34" t="s">
-        <v>241</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I34" t="s">
-        <v>621</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="K34" t="s">
-        <v>378</v>
-      </c>
-      <c r="L34" t="s">
-        <v>522</v>
-      </c>
-      <c r="M34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="1">
-        <v>40118</v>
-      </c>
-      <c r="E35" t="s">
-        <v>214</v>
-      </c>
-      <c r="F35" t="s">
-        <v>215</v>
-      </c>
-      <c r="G35" t="s">
-        <v>216</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I35" t="s">
-        <v>622</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="K35" t="s">
-        <v>85</v>
-      </c>
-      <c r="L35" t="s">
-        <v>523</v>
       </c>
       <c r="M35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B36" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D36" s="1">
-        <v>40664</v>
+        <v>36192</v>
       </c>
       <c r="E36" t="s">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="F36" t="s">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="I36" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="K36" t="s">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="L36" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>386</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D37" s="1">
-        <v>37865</v>
+        <v>40817</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>343</v>
       </c>
       <c r="F37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G37" t="s">
+        <v>345</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I37" t="s">
+        <v>620</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="K37" t="s">
+        <v>83</v>
+      </c>
+      <c r="L37" t="s">
+        <v>523</v>
+      </c>
+      <c r="M37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>375</v>
+      </c>
+      <c r="B38" t="s">
+        <v>374</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="1">
+        <v>42979</v>
+      </c>
+      <c r="E38" t="s">
+        <v>327</v>
+      </c>
+      <c r="F38" t="s">
+        <v>328</v>
+      </c>
+      <c r="G38" t="s">
         <v>39</v>
       </c>
-      <c r="G37" t="s">
-        <v>209</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I37" t="s">
-        <v>624</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="K37" t="s">
-        <v>368</v>
-      </c>
-      <c r="L37" t="s">
-        <v>525</v>
-      </c>
-      <c r="M37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>383</v>
-      </c>
-      <c r="B38" t="s">
-        <v>382</v>
-      </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="1">
-        <v>36192</v>
-      </c>
-      <c r="E38" t="s">
-        <v>349</v>
-      </c>
-      <c r="F38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" t="s">
-        <v>113</v>
-      </c>
       <c r="H38" s="2" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="I38" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K38" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L38" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>373</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D39" s="1">
-        <v>40817</v>
+        <v>40057</v>
       </c>
       <c r="E39" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="F39" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="G39" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>422</v>
+        <v>333</v>
       </c>
       <c r="I39" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="K39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L39" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s">
-        <v>382</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D40" s="1">
-        <v>42979</v>
+        <v>37865</v>
       </c>
       <c r="E40" t="s">
-        <v>335</v>
+        <v>120</v>
       </c>
       <c r="F40" t="s">
-        <v>336</v>
+        <v>121</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>337</v>
+        <v>123</v>
       </c>
       <c r="I40" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="K40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L40" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>374</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>40057</v>
+        <v>39600</v>
       </c>
       <c r="E41" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F41" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G41" t="s">
-        <v>340</v>
+        <v>31</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I41" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K41" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L41" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D42" s="1">
-        <v>37865</v>
+        <v>42370</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>337</v>
       </c>
       <c r="F42" t="s">
-        <v>124</v>
+        <v>338</v>
       </c>
       <c r="G42" t="s">
-        <v>125</v>
+        <v>339</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>126</v>
+        <v>340</v>
       </c>
       <c r="I42" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L42" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B43" t="s">
-        <v>382</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1">
-        <v>39600</v>
+        <v>39783</v>
       </c>
       <c r="E43" t="s">
-        <v>342</v>
+        <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>344</v>
+        <v>39</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="I43" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="K43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L43" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D44" s="1">
-        <v>42370</v>
+        <v>37377</v>
       </c>
       <c r="E44" t="s">
-        <v>345</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>346</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>347</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>348</v>
+        <v>31</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="I44" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K44" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L44" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>376</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1">
-        <v>39783</v>
+        <v>42767</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>429</v>
+        <v>177</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="I45" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="K45" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L45" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>378</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D46" s="1">
-        <v>37377</v>
+        <v>39692</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>42</v>
+        <v>137</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="I46" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="K46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L46" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>385</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>384</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D47" s="1">
-        <v>42767</v>
+        <v>41030</v>
       </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="F47" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="I47" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="K47" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L47" t="s">
+        <v>533</v>
+      </c>
+      <c r="M47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>373</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="1">
+        <v>41548</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="I48" t="s">
+        <v>631</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K48" t="s">
+        <v>88</v>
+      </c>
+      <c r="L48" t="s">
+        <v>534</v>
+      </c>
+      <c r="M48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>379</v>
+      </c>
+      <c r="B49" t="s">
+        <v>378</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="1">
+        <v>42095</v>
+      </c>
+      <c r="E49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I49" t="s">
+        <v>632</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="K49" t="s">
+        <v>83</v>
+      </c>
+      <c r="L49" t="s">
         <v>535</v>
-      </c>
-      <c r="M47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>387</v>
-      </c>
-      <c r="B48" t="s">
-        <v>386</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="1">
-        <v>39692</v>
-      </c>
-      <c r="E48" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" t="s">
-        <v>140</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I48" t="s">
-        <v>635</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="K48" t="s">
-        <v>85</v>
-      </c>
-      <c r="L48" t="s">
-        <v>536</v>
-      </c>
-      <c r="M48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="1">
-        <v>41030</v>
-      </c>
-      <c r="E49" t="s">
-        <v>243</v>
-      </c>
-      <c r="F49" t="s">
-        <v>244</v>
-      </c>
-      <c r="G49" t="s">
-        <v>245</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I49" t="s">
-        <v>636</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="K49" t="s">
-        <v>85</v>
-      </c>
-      <c r="L49" t="s">
-        <v>537</v>
       </c>
       <c r="M49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42887</v>
+      </c>
+      <c r="E50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" t="s">
+        <v>633</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="K50" t="s">
+        <v>83</v>
+      </c>
+      <c r="L50" t="s">
+        <v>536</v>
+      </c>
+      <c r="M50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="1">
-        <v>41548</v>
-      </c>
-      <c r="E50" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="I50" t="s">
-        <v>637</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K50" t="s">
-        <v>91</v>
-      </c>
-      <c r="L50" t="s">
-        <v>538</v>
-      </c>
-      <c r="M50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>387</v>
-      </c>
-      <c r="B51" t="s">
-        <v>386</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
       <c r="D51" s="1">
-        <v>42095</v>
+        <v>40634</v>
       </c>
       <c r="E51" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="I51" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K51" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L51" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>381</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1">
-        <v>42887</v>
+        <v>39995</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="F52" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>137</v>
+        <v>243</v>
       </c>
       <c r="I52" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K52" t="s">
-        <v>86</v>
+        <v>368</v>
       </c>
       <c r="L52" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>377</v>
+      </c>
+      <c r="B53" t="s">
+        <v>376</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1">
+        <v>40299</v>
+      </c>
+      <c r="E53" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I53" t="s">
+        <v>636</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="K53" t="s">
         <v>82</v>
       </c>
-      <c r="B53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="1">
-        <v>40634</v>
-      </c>
-      <c r="E53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="I53" t="s">
-        <v>640</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="K53" t="s">
-        <v>85</v>
-      </c>
       <c r="L53" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>376</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D54" s="1">
-        <v>39995</v>
+        <v>43040</v>
       </c>
       <c r="E54" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="G54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
       <c r="I54" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K54" t="s">
-        <v>376</v>
+        <v>84</v>
       </c>
       <c r="L54" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D55" s="1">
-        <v>40299</v>
+        <v>40969</v>
       </c>
       <c r="E55" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="F55" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="I55" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="K55" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L55" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>385</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>384</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
         <v>51</v>
       </c>
       <c r="D56" s="1">
-        <v>43040</v>
+        <v>38869</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="F56" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="G56" t="s">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="I56" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="K56" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L56" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>385</v>
-      </c>
-      <c r="B57" t="s">
-        <v>384</v>
-      </c>
-      <c r="C57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="1">
-        <v>40969</v>
-      </c>
-      <c r="E57" t="s">
-        <v>168</v>
-      </c>
-      <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>140</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I57" t="s">
-        <v>644</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="K57" t="s">
-        <v>91</v>
-      </c>
-      <c r="L57" t="s">
-        <v>545</v>
-      </c>
-      <c r="M57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D57" s="1"/>
+      <c r="L57"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D58" s="1">
-        <v>38869</v>
+        <v>42156</v>
       </c>
       <c r="E58" t="s">
-        <v>274</v>
+        <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>275</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>276</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>277</v>
+        <v>32</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="I58" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>445</v>
+        <v>76</v>
       </c>
       <c r="K58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L58" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D59" s="1"/>
-      <c r="L59"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>379</v>
+      </c>
+      <c r="B59" t="s">
+        <v>378</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1">
+        <v>40026</v>
+      </c>
+      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I59" t="s">
+        <v>641</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="K59" t="s">
+        <v>82</v>
+      </c>
+      <c r="L59" t="s">
+        <v>544</v>
+      </c>
+      <c r="M59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D60" s="1">
-        <v>42156</v>
+        <v>42309</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="F60" t="s">
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>446</v>
+        <v>67</v>
       </c>
       <c r="I60" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="K60" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L60" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B61" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D61" s="1">
-        <v>40026</v>
+        <v>38504</v>
       </c>
       <c r="E61" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F61" t="s">
         <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="I61" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="K61" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L61" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M61" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>378</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D62" s="1">
-        <v>42309</v>
+        <v>40544</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="G62" t="s">
-        <v>98</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>69</v>
+        <v>118</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="I62" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="K62" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L62" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>385</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>384</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D63" s="1">
-        <v>38504</v>
+        <v>41487</v>
       </c>
       <c r="E63" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="G63" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="I63" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="K63" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L63" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B64" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D64" s="1">
-        <v>40544</v>
+        <v>43282</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="G64" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="I64" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L64" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M64" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>373</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="1">
-        <v>41487</v>
+        <v>36465</v>
       </c>
       <c r="E65" t="s">
-        <v>218</v>
+        <v>348</v>
       </c>
       <c r="F65" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="G65" t="s">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>221</v>
+        <v>350</v>
       </c>
       <c r="I65" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="K65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L65" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B66" t="s">
-        <v>384</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D66" s="1">
-        <v>43282</v>
+        <v>40057</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="F66" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>152</v>
+        <v>93</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="I66" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="K66" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L66" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>374</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D67" s="1">
-        <v>36465</v>
+        <v>42795</v>
       </c>
       <c r="E67" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="F67" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="G67" t="s">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="I67" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K67" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L67" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="M67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>376</v>
       </c>
       <c r="C68" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D68" s="1">
-        <v>40057</v>
+        <v>41426</v>
       </c>
       <c r="E68" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="G68" t="s">
-        <v>96</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>435</v>
+        <v>137</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="I68" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="K68" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L68" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M68" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B69" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1">
-        <v>42795</v>
+        <v>40513</v>
       </c>
       <c r="E69" t="s">
-        <v>305</v>
+        <v>157</v>
       </c>
       <c r="F69" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="G69" t="s">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>454</v>
+        <v>160</v>
       </c>
       <c r="I69" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K69" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L69" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="M69" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B70" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1">
-        <v>41426</v>
+        <v>40057</v>
       </c>
       <c r="E70" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="F70" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="G70" t="s">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="I70" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K70" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L70" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D71" s="1">
-        <v>40513</v>
+        <v>40087</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>162</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>163</v>
+        <v>35</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="I71" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="K71" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L71" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="M71" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B72" t="s">
-        <v>382</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="1">
-        <v>40057</v>
+        <v>37591</v>
       </c>
       <c r="E72" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="F72" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="G72" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="I72" t="s">
+        <v>654</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="K72" t="s">
+        <v>372</v>
+      </c>
+      <c r="L72" t="s">
+        <v>556</v>
+      </c>
+      <c r="M72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>377</v>
+      </c>
+      <c r="B73" t="s">
+        <v>376</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="1">
+        <v>36770</v>
+      </c>
+      <c r="E73" t="s">
+        <v>289</v>
+      </c>
+      <c r="F73" t="s">
+        <v>290</v>
+      </c>
+      <c r="G73" t="s">
+        <v>126</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I73" t="s">
+        <v>655</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="K73" t="s">
+        <v>82</v>
+      </c>
+      <c r="L73" t="s">
+        <v>557</v>
+      </c>
+      <c r="M73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>373</v>
+      </c>
+      <c r="B74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1">
+        <v>41699</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I74" t="s">
+        <v>656</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="K74" t="s">
+        <v>82</v>
+      </c>
+      <c r="L74" t="s">
+        <v>558</v>
+      </c>
+      <c r="M74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>377</v>
+      </c>
+      <c r="B75" t="s">
+        <v>376</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1">
+        <v>40299</v>
+      </c>
+      <c r="E75" t="s">
+        <v>248</v>
+      </c>
+      <c r="F75" t="s">
+        <v>201</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I75" t="s">
+        <v>657</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="K75" t="s">
+        <v>82</v>
+      </c>
+      <c r="L75" t="s">
+        <v>559</v>
+      </c>
+      <c r="M75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="1">
+        <v>40664</v>
+      </c>
+      <c r="E76" t="s">
+        <v>224</v>
+      </c>
+      <c r="F76" t="s">
+        <v>225</v>
+      </c>
+      <c r="G76" t="s">
+        <v>226</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I76" t="s">
         <v>658</v>
       </c>
-      <c r="J72" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="K72" t="s">
-        <v>85</v>
-      </c>
-      <c r="L72" t="s">
-        <v>559</v>
-      </c>
-      <c r="M72" t="s">
+      <c r="J76" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="K76" t="s">
+        <v>364</v>
+      </c>
+      <c r="L76" t="s">
+        <v>560</v>
+      </c>
+      <c r="M76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D77" s="1"/>
+      <c r="L77"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>373</v>
+      </c>
+      <c r="B78" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="1">
+        <v>42705</v>
+      </c>
+      <c r="E78" t="s">
+        <v>80</v>
+      </c>
+      <c r="F78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" s="3"/>
+      <c r="I78" t="s">
+        <v>659</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="K78" t="s">
+        <v>82</v>
+      </c>
+      <c r="L78" t="s">
+        <v>561</v>
+      </c>
+      <c r="M78" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>381</v>
-      </c>
-      <c r="B73" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>377</v>
+      </c>
+      <c r="B79" t="s">
+        <v>376</v>
+      </c>
+      <c r="C79" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="1">
-        <v>40087</v>
-      </c>
-      <c r="E73" t="s">
-        <v>25</v>
-      </c>
-      <c r="F73" t="s">
-        <v>34</v>
-      </c>
-      <c r="G73" t="s">
-        <v>35</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="I73" t="s">
-        <v>659</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="K73" t="s">
-        <v>85</v>
-      </c>
-      <c r="L73" t="s">
-        <v>549</v>
-      </c>
-      <c r="M73" t="s">
+      <c r="D79" s="1">
+        <v>42186</v>
+      </c>
+      <c r="E79" t="s">
+        <v>167</v>
+      </c>
+      <c r="F79" t="s">
+        <v>168</v>
+      </c>
+      <c r="G79" t="s">
+        <v>169</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I79" t="s">
+        <v>660</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="K79" t="s">
+        <v>82</v>
+      </c>
+      <c r="L79" t="s">
+        <v>562</v>
+      </c>
+      <c r="M79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>373</v>
+      </c>
+      <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" s="1">
+        <v>43647</v>
+      </c>
+      <c r="E80" t="s">
+        <v>300</v>
+      </c>
+      <c r="F80" t="s">
+        <v>301</v>
+      </c>
+      <c r="G80" t="s">
+        <v>302</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I80" t="s">
+        <v>661</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="K80" t="s">
+        <v>82</v>
+      </c>
+      <c r="L80" t="s">
+        <v>563</v>
+      </c>
+      <c r="M80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>379</v>
+      </c>
+      <c r="B81" t="s">
+        <v>378</v>
+      </c>
+      <c r="C81" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="1">
+        <v>38139</v>
+      </c>
+      <c r="E81" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" t="s">
+        <v>125</v>
+      </c>
+      <c r="G81" t="s">
+        <v>126</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I81" t="s">
+        <v>662</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="K81" t="s">
+        <v>86</v>
+      </c>
+      <c r="L81" t="s">
+        <v>564</v>
+      </c>
+      <c r="M81" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>381</v>
-      </c>
-      <c r="B74" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="1">
-        <v>37591</v>
-      </c>
-      <c r="E74" t="s">
-        <v>301</v>
-      </c>
-      <c r="F74" t="s">
-        <v>302</v>
-      </c>
-      <c r="G74" t="s">
-        <v>303</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="I74" t="s">
-        <v>660</v>
-      </c>
-      <c r="J74" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="K74" t="s">
-        <v>380</v>
-      </c>
-      <c r="L74" t="s">
-        <v>560</v>
-      </c>
-      <c r="M74" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>385</v>
-      </c>
-      <c r="B75" t="s">
-        <v>384</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="1">
-        <v>36770</v>
-      </c>
-      <c r="E75" t="s">
-        <v>295</v>
-      </c>
-      <c r="F75" t="s">
-        <v>296</v>
-      </c>
-      <c r="G75" t="s">
-        <v>129</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="I75" t="s">
-        <v>661</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="K75" t="s">
-        <v>85</v>
-      </c>
-      <c r="L75" t="s">
-        <v>561</v>
-      </c>
-      <c r="M75" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>381</v>
-      </c>
-      <c r="B76" t="s">
-        <v>100</v>
-      </c>
-      <c r="C76" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="1">
-        <v>41699</v>
-      </c>
-      <c r="E76" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I76" t="s">
-        <v>662</v>
-      </c>
-      <c r="J76" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="K76" t="s">
-        <v>85</v>
-      </c>
-      <c r="L76" t="s">
-        <v>562</v>
-      </c>
-      <c r="M76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>385</v>
-      </c>
-      <c r="B77" t="s">
-        <v>384</v>
-      </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="1">
-        <v>40299</v>
-      </c>
-      <c r="E77" t="s">
-        <v>253</v>
-      </c>
-      <c r="F77" t="s">
-        <v>206</v>
-      </c>
-      <c r="G77" t="s">
-        <v>33</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I77" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>377</v>
+      </c>
+      <c r="B82" t="s">
+        <v>376</v>
+      </c>
+      <c r="C82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="1">
+        <v>37165</v>
+      </c>
+      <c r="E82" t="s">
+        <v>286</v>
+      </c>
+      <c r="F82" t="s">
+        <v>287</v>
+      </c>
+      <c r="G82" t="s">
+        <v>266</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I82" t="s">
         <v>663</v>
       </c>
-      <c r="J77" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="K77" t="s">
-        <v>85</v>
-      </c>
-      <c r="L77" t="s">
-        <v>563</v>
-      </c>
-      <c r="M77" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" t="s">
-        <v>45</v>
-      </c>
-      <c r="D78" s="1">
-        <v>40664</v>
-      </c>
-      <c r="E78" t="s">
-        <v>229</v>
-      </c>
-      <c r="F78" t="s">
-        <v>230</v>
-      </c>
-      <c r="G78" t="s">
-        <v>231</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I78" t="s">
-        <v>664</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="K78" t="s">
-        <v>372</v>
-      </c>
-      <c r="L78" t="s">
-        <v>564</v>
-      </c>
-      <c r="M78" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D79" s="1"/>
-      <c r="L79"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>381</v>
-      </c>
-      <c r="B80" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="1">
-        <v>42705</v>
-      </c>
-      <c r="E80" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" t="s">
-        <v>36</v>
-      </c>
-      <c r="G80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H80" s="3"/>
-      <c r="I80" t="s">
-        <v>665</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="K80" t="s">
-        <v>85</v>
-      </c>
-      <c r="L80" t="s">
+      <c r="J82" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="K82" t="s">
+        <v>82</v>
+      </c>
+      <c r="L82" t="s">
         <v>565</v>
-      </c>
-      <c r="M80" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>385</v>
-      </c>
-      <c r="B81" t="s">
-        <v>384</v>
-      </c>
-      <c r="C81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" s="1">
-        <v>42186</v>
-      </c>
-      <c r="E81" t="s">
-        <v>170</v>
-      </c>
-      <c r="F81" t="s">
-        <v>171</v>
-      </c>
-      <c r="G81" t="s">
-        <v>172</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I81" t="s">
-        <v>666</v>
-      </c>
-      <c r="J81" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="K81" t="s">
-        <v>85</v>
-      </c>
-      <c r="L81" t="s">
-        <v>566</v>
-      </c>
-      <c r="M81" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>381</v>
-      </c>
-      <c r="B82" t="s">
-        <v>100</v>
-      </c>
-      <c r="C82" t="s">
-        <v>46</v>
-      </c>
-      <c r="D82" s="1">
-        <v>43647</v>
-      </c>
-      <c r="E82" t="s">
-        <v>307</v>
-      </c>
-      <c r="F82" t="s">
-        <v>308</v>
-      </c>
-      <c r="G82" t="s">
-        <v>309</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="I82" t="s">
-        <v>667</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="K82" t="s">
-        <v>85</v>
-      </c>
-      <c r="L82" t="s">
-        <v>567</v>
       </c>
       <c r="M82" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B83" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D83" s="1">
-        <v>38139</v>
+        <v>37500</v>
       </c>
       <c r="E83" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="F83" t="s">
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="G83" t="s">
-        <v>129</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>130</v>
+        <v>285</v>
       </c>
       <c r="I83" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="K83" t="s">
-        <v>89</v>
+        <v>370</v>
       </c>
       <c r="L83" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M83" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B84" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C84" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D84" s="1">
-        <v>37165</v>
+        <v>42370</v>
       </c>
       <c r="E84" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="F84" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="G84" t="s">
-        <v>272</v>
+        <v>29</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="I84" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L84" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M84" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B85" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="1">
-        <v>37500</v>
+        <v>38687</v>
       </c>
       <c r="E85" t="s">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="F85" t="s">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="G85" t="s">
-        <v>291</v>
+        <v>141</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="I85" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="K85" t="s">
+        <v>82</v>
+      </c>
+      <c r="L85" t="s">
+        <v>568</v>
+      </c>
+      <c r="M85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>379</v>
+      </c>
+      <c r="B86" t="s">
         <v>378</v>
-      </c>
-      <c r="L85" t="s">
-        <v>570</v>
-      </c>
-      <c r="M85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>385</v>
-      </c>
-      <c r="B86" t="s">
-        <v>384</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="1">
-        <v>42370</v>
+        <v>43282</v>
       </c>
       <c r="E86" t="s">
-        <v>255</v>
+        <v>143</v>
       </c>
       <c r="F86" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="I86" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K86" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L86" t="s">
+        <v>569</v>
+      </c>
+      <c r="M86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="1">
+        <v>43862</v>
+      </c>
+      <c r="E87" t="s">
+        <v>252</v>
+      </c>
+      <c r="F87" t="s">
+        <v>253</v>
+      </c>
+      <c r="G87" t="s">
+        <v>253</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I87" t="s">
+        <v>668</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="K87" t="s">
+        <v>363</v>
+      </c>
+      <c r="L87" t="s">
+        <v>570</v>
+      </c>
+      <c r="M87" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>379</v>
+      </c>
+      <c r="B88" t="s">
+        <v>378</v>
+      </c>
+      <c r="C88" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="1">
+        <v>41426</v>
+      </c>
+      <c r="E88" t="s">
+        <v>150</v>
+      </c>
+      <c r="F88" t="s">
+        <v>151</v>
+      </c>
+      <c r="G88" t="s">
+        <v>162</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I88" t="s">
+        <v>669</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="K88" t="s">
+        <v>82</v>
+      </c>
+      <c r="L88" t="s">
         <v>571</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M88" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>387</v>
-      </c>
-      <c r="B87" t="s">
-        <v>386</v>
-      </c>
-      <c r="C87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="1">
-        <v>38687</v>
-      </c>
-      <c r="E87" t="s">
-        <v>142</v>
-      </c>
-      <c r="F87" t="s">
-        <v>143</v>
-      </c>
-      <c r="G87" t="s">
-        <v>144</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I87" t="s">
-        <v>672</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="K87" t="s">
-        <v>85</v>
-      </c>
-      <c r="L87" t="s">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>379</v>
+      </c>
+      <c r="B89" t="s">
+        <v>378</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="1">
+        <v>38838</v>
+      </c>
+      <c r="E89" t="s">
+        <v>113</v>
+      </c>
+      <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
+        <v>114</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I89" t="s">
+        <v>670</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="K89" t="s">
+        <v>82</v>
+      </c>
+      <c r="L89" t="s">
         <v>572</v>
-      </c>
-      <c r="M87" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>387</v>
-      </c>
-      <c r="B88" t="s">
-        <v>386</v>
-      </c>
-      <c r="C88" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="1">
-        <v>43282</v>
-      </c>
-      <c r="E88" t="s">
-        <v>146</v>
-      </c>
-      <c r="F88" t="s">
-        <v>147</v>
-      </c>
-      <c r="G88" t="s">
-        <v>33</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I88" t="s">
-        <v>673</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="K88" t="s">
-        <v>85</v>
-      </c>
-      <c r="L88" t="s">
-        <v>573</v>
-      </c>
-      <c r="M88" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>19</v>
-      </c>
-      <c r="B89" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="1">
-        <v>39052</v>
-      </c>
-      <c r="E89" t="s">
-        <v>257</v>
-      </c>
-      <c r="F89" t="s">
-        <v>258</v>
-      </c>
-      <c r="G89" t="s">
-        <v>258</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I89" t="s">
-        <v>674</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="K89" t="s">
-        <v>371</v>
-      </c>
-      <c r="L89" t="s">
-        <v>574</v>
       </c>
       <c r="M89" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B90" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C90" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1">
-        <v>41426</v>
+        <v>36951</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="F90" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="I90" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K90" t="s">
-        <v>85</v>
+        <v>368</v>
       </c>
       <c r="L90" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>386</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D91" s="1">
-        <v>38838</v>
+        <v>38534</v>
       </c>
       <c r="E91" t="s">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="G91" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="I91" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="K91" t="s">
-        <v>85</v>
+        <v>367</v>
       </c>
       <c r="L91" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M91" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="B92" t="s">
-        <v>382</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="1">
-        <v>36951</v>
+        <v>38534</v>
       </c>
       <c r="E92" t="s">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>288</v>
+        <v>31</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="I92" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="K92" t="s">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="L92" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M92" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D93" s="1">
-        <v>38534</v>
+        <v>42917</v>
       </c>
       <c r="E93" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="F93" t="s">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>242</v>
+        <v>467</v>
       </c>
       <c r="I93" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="K93" t="s">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="L93" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M93" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94" s="1">
-        <v>38534</v>
+        <v>41852</v>
       </c>
       <c r="E94" t="s">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="I94" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K94" t="s">
-        <v>85</v>
+        <v>360</v>
       </c>
       <c r="L94" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M94" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>376</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="1">
-        <v>42917</v>
+        <v>40299</v>
       </c>
       <c r="E95" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="G95" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>476</v>
+        <v>174</v>
       </c>
       <c r="I95" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K95" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L95" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M95" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>379</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>378</v>
       </c>
       <c r="C96" t="s">
         <v>11</v>
       </c>
       <c r="D96" s="1">
-        <v>41852</v>
+        <v>39295</v>
       </c>
       <c r="E96" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="F96" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>478</v>
+        <v>156</v>
       </c>
       <c r="I96" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="K96" t="s">
-        <v>368</v>
+        <v>82</v>
       </c>
       <c r="L96" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B97" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D97" s="1">
-        <v>40299</v>
+        <v>39203</v>
       </c>
       <c r="E97" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="F97" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="G97" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="I97" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="K97" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L97" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M97" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>387</v>
-      </c>
-      <c r="B98" t="s">
-        <v>386</v>
-      </c>
-      <c r="C98" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="1">
-        <v>39295</v>
-      </c>
-      <c r="E98" t="s">
-        <v>156</v>
-      </c>
-      <c r="F98" t="s">
-        <v>157</v>
-      </c>
-      <c r="G98" t="s">
-        <v>158</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I98" t="s">
-        <v>683</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="K98" t="s">
-        <v>85</v>
-      </c>
-      <c r="L98" t="s">
-        <v>583</v>
-      </c>
-      <c r="M98" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D98" s="1"/>
+      <c r="L98"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B99" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C99" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1">
-        <v>39203</v>
+        <v>44317</v>
       </c>
       <c r="E99" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="F99" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G99" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="I99" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K99" t="s">
-        <v>85</v>
+        <v>361</v>
       </c>
       <c r="L99" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M99" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D100" s="1"/>
-      <c r="L100"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>379</v>
+      </c>
+      <c r="B100" t="s">
+        <v>378</v>
+      </c>
+      <c r="C100" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" s="1">
+        <v>41548</v>
+      </c>
+      <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
+        <v>197</v>
+      </c>
+      <c r="G100" t="s">
+        <v>137</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I100" t="s">
+        <v>680</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="K100" t="s">
+        <v>87</v>
+      </c>
+      <c r="L100" t="s">
+        <v>582</v>
+      </c>
+      <c r="M100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>387</v>
+        <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>386</v>
+        <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D101" s="1">
-        <v>44317</v>
+        <v>44378</v>
       </c>
       <c r="E101" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F101" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="G101" t="s">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="I101" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K101" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L101" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M101" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B102" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C102" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D102" s="1">
-        <v>41548</v>
+        <v>43709</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="G102" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="I102" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K102" t="s">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="L102" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M102" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>19</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C103" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D103" s="1">
-        <v>44378</v>
+        <v>43862</v>
       </c>
       <c r="E103" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F103" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I103" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>489</v>
       </c>
       <c r="K103" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L103" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M103" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>385</v>
+        <v>19</v>
       </c>
       <c r="B104" t="s">
-        <v>384</v>
+        <v>98</v>
       </c>
       <c r="C104" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D104" s="1">
-        <v>43709</v>
+        <v>41730</v>
       </c>
       <c r="E104" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F104" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G104" t="s">
-        <v>263</v>
+        <v>110</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I104" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="K104" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L104" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M104" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>19</v>
-      </c>
-      <c r="B105" t="s">
-        <v>101</v>
-      </c>
-      <c r="C105" t="s">
-        <v>52</v>
-      </c>
-      <c r="D105" s="1">
-        <v>43862</v>
-      </c>
-      <c r="E105" t="s">
-        <v>223</v>
-      </c>
-      <c r="F105" t="s">
-        <v>224</v>
-      </c>
-      <c r="G105" t="s">
-        <v>113</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I105" t="s">
-        <v>689</v>
-      </c>
-      <c r="J105" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="K105" t="s">
-        <v>370</v>
-      </c>
-      <c r="L105" t="s">
-        <v>589</v>
-      </c>
-      <c r="M105" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>19</v>
-      </c>
-      <c r="B106" t="s">
-        <v>101</v>
-      </c>
-      <c r="C106" t="s">
-        <v>45</v>
-      </c>
-      <c r="D106" s="1">
-        <v>41730</v>
-      </c>
-      <c r="E106" t="s">
-        <v>271</v>
-      </c>
-      <c r="F106" t="s">
-        <v>272</v>
-      </c>
-      <c r="G106" t="s">
-        <v>113</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I106" t="s">
-        <v>690</v>
-      </c>
-      <c r="J106" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="K106" t="s">
-        <v>379</v>
-      </c>
-      <c r="L106" t="s">
-        <v>590</v>
-      </c>
-      <c r="M106" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="F2:L106">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:L104">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6693,19 +6596,19 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6716,7 +6619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -6727,7 +6630,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -6738,7 +6641,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -6749,7 +6652,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -6760,7 +6663,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -6771,18 +6674,18 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="6">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="C7">
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6793,9 +6696,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B9" s="6">
         <v>31000</v>
@@ -6804,18 +6707,18 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="6">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="C10">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -6826,29 +6729,29 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="6">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="C12">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="6">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="C13">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -6859,7 +6762,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -6883,12 +6786,12 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="20.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -6896,7 +6799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12000</v>
       </c>
@@ -6904,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>13000</v>
       </c>
@@ -6912,7 +6815,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14000</v>
       </c>
@@ -6920,7 +6823,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15000</v>
       </c>
@@ -6928,7 +6831,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>16000</v>
       </c>
@@ -6936,7 +6839,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>17000</v>
       </c>
@@ -6944,7 +6847,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>18000</v>
       </c>
@@ -6952,7 +6855,7 @@
         <v>11.02</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>19000</v>
       </c>
@@ -6960,7 +6863,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20000</v>
       </c>
@@ -6968,7 +6871,7 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21000</v>
       </c>
@@ -6976,7 +6879,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22000</v>
       </c>
@@ -6984,7 +6887,7 @@
         <v>13.13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23000</v>
       </c>
@@ -6992,7 +6895,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24000</v>
       </c>
@@ -7000,7 +6903,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25000</v>
       </c>
@@ -7008,7 +6911,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26000</v>
       </c>
@@ -7016,7 +6919,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>27000</v>
       </c>
@@ -7024,7 +6927,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28000</v>
       </c>
@@ -7032,7 +6935,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>29000</v>
       </c>
@@ -7040,7 +6943,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>30000</v>
       </c>
@@ -7048,7 +6951,7 @@
         <v>17.010000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>31000</v>
       </c>
@@ -7056,7 +6959,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>32000</v>
       </c>
@@ -7064,7 +6967,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>33000</v>
       </c>
@@ -7072,7 +6975,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>34000</v>
       </c>
@@ -7080,7 +6983,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>35000</v>
       </c>
@@ -7088,7 +6991,7 @@
         <v>18.63</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>36000</v>
       </c>
@@ -7096,7 +6999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>37000</v>
       </c>
@@ -7104,7 +7007,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>38000</v>
       </c>
@@ -7112,7 +7015,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>39000</v>
       </c>
@@ -7120,7 +7023,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>40000</v>
       </c>
@@ -7128,7 +7031,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>41000</v>
       </c>
@@ -7136,7 +7039,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>42000</v>
       </c>
@@ -7144,7 +7047,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>43000</v>
       </c>
@@ -7152,7 +7055,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>44000</v>
       </c>
@@ -7160,7 +7063,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>45000</v>
       </c>
@@ -7168,7 +7071,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>46000</v>
       </c>
@@ -7176,7 +7079,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>47000</v>
       </c>
@@ -7184,7 +7087,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>48000</v>
       </c>
@@ -7192,7 +7095,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>49000</v>
       </c>
@@ -7200,7 +7103,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>50000</v>
       </c>
@@ -7208,7 +7111,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>51000</v>
       </c>
@@ -7216,7 +7119,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>52000</v>
       </c>
@@ -7224,7 +7127,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>53000</v>
       </c>
@@ -7232,7 +7135,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>54000</v>
       </c>
@@ -7240,7 +7143,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>55000</v>
       </c>
@@ -7248,7 +7151,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>56000</v>
       </c>
@@ -7256,7 +7159,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>57000</v>
       </c>
@@ -7264,7 +7167,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>58000</v>
       </c>
@@ -7272,7 +7175,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>59000</v>
       </c>
@@ -7280,7 +7183,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>60000</v>
       </c>
@@ -7301,71 +7204,71 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="38.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1">
         <v>4.7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2">
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>23.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -7384,21 +7287,21 @@
       <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7406,7 +7309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7414,7 +7317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7422,7 +7325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7430,7 +7333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7438,7 +7341,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7446,7 +7349,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7454,7 +7357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7462,7 +7365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7470,7 +7373,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7478,7 +7381,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7486,7 +7389,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7494,7 +7397,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7502,7 +7405,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7510,7 +7413,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7518,7 +7421,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7526,7 +7429,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7534,7 +7437,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="685">
   <si>
     <t>Nombre</t>
   </si>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5242" uniqueCount="685">
   <si>
     <t>Nombre</t>
   </si>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5242" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6418" uniqueCount="685">
   <si>
     <t>Nombre</t>
   </si>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6418" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6712" uniqueCount="685">
   <si>
     <t>Nombre</t>
   </si>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6712" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8770" uniqueCount="685">
   <si>
     <t>Nombre</t>
   </si>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8770" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9652" uniqueCount="685">
   <si>
     <t>Nombre</t>
   </si>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9652" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19746" uniqueCount="685">
   <si>
     <t>Nombre</t>
   </si>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19746" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23274" uniqueCount="685">
   <si>
     <t>Nombre</t>
   </si>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23274" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23666" uniqueCount="685">
   <si>
     <t>Nombre</t>
   </si>

--- a/resources/SistemasInformacionII.xlsx
+++ b/resources/SistemasInformacionII.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23666" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23960" uniqueCount="685">
   <si>
     <t>Nombre</t>
   </si>
